--- a/biology/Médecine/1549_en_santé_et_médecine/1549_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1549_en_santé_et_médecine/1549_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1549_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1549_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1549 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1549_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1549_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Trois chirurgiens laïcs sont appointés au St. Bartholomew's Hospital de Londres, où les soins sont traditionnellement confiés à des frères et sœurs augustins[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Trois chirurgiens laïcs sont appointés au St. Bartholomew's Hospital de Londres, où les soins sont traditionnellement confiés à des frères et sœurs augustins.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1549_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1549_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,11 +555,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ambroise Paré (c. 1510-1590) fait paraître chez Guillaume Cavellat, à Paris, sa Brève collection de l'administration anatomique, dédiée « à René de Rohan qui l'a engagé comme chirurgien militaire en 1543[2],[3] ».
-Parution de la traduction latine de la Matière médicale de Dioscoride, édition établie par Jean Ruel, imprimée à Francfort chez Christian Egenolff, et qui deviendra « la source et l'origine de la botanique scientifique jusqu'au début du XVIIe siècle[4],[5] ».
-Pierre Tolet (1502-1586), docteur en médecine, fait imprimer à Lyon, par Jean de Tournes, son Paradoxe de la faculté du vinaigre[6],[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ambroise Paré (c. 1510-1590) fait paraître chez Guillaume Cavellat, à Paris, sa Brève collection de l'administration anatomique, dédiée « à René de Rohan qui l'a engagé comme chirurgien militaire en 1543, ».
+Parution de la traduction latine de la Matière médicale de Dioscoride, édition établie par Jean Ruel, imprimée à Francfort chez Christian Egenolff, et qui deviendra « la source et l'origine de la botanique scientifique jusqu'au début du XVIIe siècle, ».
+Pierre Tolet (1502-1586), docteur en médecine, fait imprimer à Lyon, par Jean de Tournes, son Paradoxe de la faculté du vinaigre,.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1549_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1549_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1549 ou 1550 : Jacques Guillemeau (mort en 1613), chirurgien, obstétricien, élève d'Ambroise Paré, au service des rois de France Charles IX, Henri III et Henri IV[8].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1549 ou 1550 : Jacques Guillemeau (mort en 1613), chirurgien, obstétricien, élève d'Ambroise Paré, au service des rois de France Charles IX, Henri III et Henri IV.</t>
         </is>
       </c>
     </row>
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1549_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1549_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,10 +621,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Francisco López de Villalobos (né vers 1473), Juif castillan, converti au catholicisme, médecin à la cour du duc d'Albe, de Ferdinand le Catholique et de Charles Quint[9].
-Après 1549[10] : Guillaume Bigot (né en 1502), écrivain, médecin et humaniste français[11],[12].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francisco López de Villalobos (né vers 1473), Juif castillan, converti au catholicisme, médecin à la cour du duc d'Albe, de Ferdinand le Catholique et de Charles Quint.
+Après 1549 : Guillaume Bigot (né en 1502), écrivain, médecin et humaniste français,.
 </t>
         </is>
       </c>
@@ -617,7 +637,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1549_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1549_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,13 +655,15 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ (en) Grâce Young et al., « Saint Bartholomew's Hospital », dans Britannica, 2013 (lire en ligne).
 ↑ Evelyne Berriot-Salvadore, « Enseigner les « indoctes », vulgariser la médecine », Seizième siècle, no 8 « Les Textes scientifiques à la Renaissance (sous la direction de Violaine Giacomotto-Charra et Jacqueline Vons) »,‎ 2012, p. 147 (lire en ligne).
 ↑ Ambroise Paré, Briefve collection de l’administration anatomique, avec la maniere de cojoindre les os, et d’extraire les enfans tant mors que vivans du ventre de la mere, lors que nature de soy ne peult venir a son effect, composée par Ambroise Paré, maistre barbier chyrurgien à Paris, Paris, Guillaume Cavellat, 1549 (lire en ligne).
-↑ (la) Dioscoride (trad. Jean Ruel), Pedanii Dioscoridis Anazarbei, De medicinali Materia libri sex, Ioanne Ruellio Suessionensi interprete. Singulis cum stirpium, tum animantium historiis, ad naturae aemulationem expressis imaginibus, seu uiuis picturis ultra millenarium numerum adiectis [etc.], Franc[oforti], apud Chr. Egenolphum, s. d. [1549] (présentation en ligne).
+↑ (la) Dioscoride (trad. Jean Ruel), Pedanii Dioscoridis Anazarbei, De medicinali Materia libri sex, Ioanne Ruellio Suessionensi interprete. Singulis cum stirpium, tum animantium historiis, ad naturae aemulationem expressis imaginibus, seu uiuis picturis ultra millenarium numerum adiectis [etc.], Franc[oforti], apud Chr. Egenolphum, s. d.  (présentation en ligne).
 ↑ Pierre Assenbaker, Christophe Flament, Anne-Marie Bogaert-Damin et Jean-Michel Dogné, « De et autour des Anciens », dans Yves Poumay, Balade patrimoniale en médecine, pharmacie et sciences biomédicales (lire en ligne), « Hippocrates (c. 460 – c. 377 av. J.-C) », p. 13-26, [§ 17 en ligne].
 ↑ Pierre Tolet, Paradoxe de la faculte du vinaigre, contre les escrits des Modernes, ou plusieurs choses sont demonstrees non eslongnees de la verité, Lyon, Jean de Tournes, 1549 (lire en ligne).
 ↑ Elise Rajchenbach, « Médecins, chirurgiens, apothicaires : À qui sont adressées les traductions médicales ? Enquête sur l'édition lyonnaise des années 1540 », Renaissance et Réforme, vol. 42, no 1 « Tensions à l'âge de l'imprimé : Conflit et concurrence des publics dans la littérature française de la Renaissance »,‎ hiver 2019, p. 228 (lire en ligne).
